--- a/membros.xlsx
+++ b/membros.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Nome</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>5519996298190</t>
+  </si>
+  <si>
+    <t>Ronaldo</t>
   </si>
   <si>
     <t>Rita</t>
@@ -328,7 +331,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>38609.0</v>
+        <v>45704.0</v>
       </c>
     </row>
     <row r="3">
@@ -366,13 +369,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>38612.0</v>
+        <v>45704.0</v>
       </c>
     </row>
     <row r="7">
@@ -388,10 +391,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>27653.0</v>
@@ -399,10 +402,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
         <v>24731.0</v>
